--- a/src/com/NFHS/xls/Registration.xlsx
+++ b/src/com/NFHS/xls/Registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2490" windowWidth="17850" windowHeight="10680"/>
+    <workbookView xWindow="5115" yWindow="30" windowWidth="13845" windowHeight="4350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Registration_Account_Setup7" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B7:D8"/>
+  <oleSize ref="A1:G13"/>
 </workbook>
 </file>
 
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
